--- a/Project/MixColumn.xlsx
+++ b/Project/MixColumn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documentos\ESCOM\Cryptography\codigos\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC92F5E-53EF-4AD7-BE1E-A96516DF9D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BB05C-4457-4CFE-803F-6F23E624E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{972ED2DC-CC0A-4F10-A6BD-A706FA4F2591}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="79">
   <si>
     <t>consulta</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>FD</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
 </sst>
 </file>
@@ -2141,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EAB477-3A52-432F-9884-A70611695ADA}">
   <dimension ref="B20:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,10 +2335,10 @@
         <v>40</v>
       </c>
       <c r="I24" s="30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K24" s="96"/>
       <c r="L24" s="13">
